--- a/HW_Grades.xlsx
+++ b/HW_Grades.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9048" activeTab="1" xr2:uid="{2E8FE322-D687-4D3C-9919-3B4BF6B0C85D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9048" activeTab="2" xr2:uid="{2E8FE322-D687-4D3C-9919-3B4BF6B0C85D}"/>
   </bookViews>
   <sheets>
     <sheet name="HW1" sheetId="1" r:id="rId1"/>
     <sheet name="HW2" sheetId="2" r:id="rId2"/>
+    <sheet name="HW3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +98,30 @@
   </si>
   <si>
     <t>Q6(25)</t>
+  </si>
+  <si>
+    <t>HW3Grade(100)</t>
+  </si>
+  <si>
+    <t>Q1(40)  5 points for 1a, 20 points for 1b, and 15 points for 1c</t>
+  </si>
+  <si>
+    <t>Q2(5)</t>
+  </si>
+  <si>
+    <t>Q3(25)</t>
+  </si>
+  <si>
+    <t>Q4(25)</t>
+  </si>
+  <si>
+    <t>Q5(5)</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>1a) 5, 1b) 15 , 1c) 13</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16C590-938F-4B80-9777-A1DD5ED73808}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,4 +1125,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD7F415-A49E-4D99-A104-8FF19440A070}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>